--- a/Data/ErrorData_ControlGroup.xlsx
+++ b/Data/ErrorData_ControlGroup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gabriel2\Documents\Projets\Indico-LearningAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gabriel2\Documents\Projets\github-ERPI\Indico-LearningAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AE7826-3C64-4000-B06C-C114057F6EFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C8D771-A9D2-4B73-8EC5-288EB1BA004A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{9E304B4F-B274-4198-9D17-869967AA7A1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Participant ID</t>
   </si>
@@ -76,6 +76,42 @@
   </si>
   <si>
     <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
   </si>
 </sst>
 </file>
@@ -427,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EC80CE-8FF3-4038-8E08-9B509228B734}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,6 +667,174 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
